--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>total_mark</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -462,6 +467,7 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -475,6 +481,7 @@
       <c r="C3" t="n">
         <v>500</v>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -488,6 +495,7 @@
       <c r="C4" t="n">
         <v>123</v>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -501,6 +509,35 @@
       <c r="C5" t="n">
         <v>5</v>
       </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>95</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Eve</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eve</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>95</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
